--- a/data/pca/factorExposure/factorExposure_2012-06-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-05.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01695146172033903</v>
+        <v>-0.02120096636338983</v>
       </c>
       <c r="C2">
-        <v>-0.03169308402617804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.0250570094063675</v>
+      </c>
+      <c r="D2">
+        <v>0.004736867788427127</v>
+      </c>
+      <c r="E2">
+        <v>0.0284896500404796</v>
+      </c>
+      <c r="F2">
+        <v>0.009633068008648266</v>
+      </c>
+      <c r="G2">
+        <v>-0.004524171823744106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.069143103598497</v>
+        <v>-0.07895142101575919</v>
       </c>
       <c r="C4">
-        <v>-0.06216656702230502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04119106282926571</v>
+      </c>
+      <c r="D4">
+        <v>-0.07052351349159719</v>
+      </c>
+      <c r="E4">
+        <v>-0.0001424092450501056</v>
+      </c>
+      <c r="F4">
+        <v>0.03496948716758726</v>
+      </c>
+      <c r="G4">
+        <v>0.005552033738398928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09918276599911832</v>
+        <v>-0.1156016463105296</v>
       </c>
       <c r="C6">
-        <v>-0.06912163418987019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04288863646961301</v>
+      </c>
+      <c r="D6">
+        <v>-0.01300430267912898</v>
+      </c>
+      <c r="E6">
+        <v>-0.008244956552066267</v>
+      </c>
+      <c r="F6">
+        <v>0.0474510508350806</v>
+      </c>
+      <c r="G6">
+        <v>-0.01148832157286403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04712255158674112</v>
+        <v>-0.05792613085940551</v>
       </c>
       <c r="C7">
-        <v>-0.03603902126112257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02537658464019519</v>
+      </c>
+      <c r="D7">
+        <v>-0.03725419052600543</v>
+      </c>
+      <c r="E7">
+        <v>0.02009148618994027</v>
+      </c>
+      <c r="F7">
+        <v>0.0392843589620326</v>
+      </c>
+      <c r="G7">
+        <v>0.04486060662849012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03532707057771956</v>
+        <v>-0.03815121326717157</v>
       </c>
       <c r="C8">
-        <v>-0.02726142716952319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01512174905639585</v>
+      </c>
+      <c r="D8">
+        <v>-0.0422796381028647</v>
+      </c>
+      <c r="E8">
+        <v>0.002871869338206546</v>
+      </c>
+      <c r="F8">
+        <v>0.05293734735248865</v>
+      </c>
+      <c r="G8">
+        <v>-0.02485195689307982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06351634539966909</v>
+        <v>-0.07327108621127058</v>
       </c>
       <c r="C9">
-        <v>-0.04941620636869114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.03024735766658539</v>
+      </c>
+      <c r="D9">
+        <v>-0.06779788815146488</v>
+      </c>
+      <c r="E9">
+        <v>0.01626074968537298</v>
+      </c>
+      <c r="F9">
+        <v>0.04203049486185444</v>
+      </c>
+      <c r="G9">
+        <v>0.005945831296656283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02884495446528981</v>
+        <v>-0.03973468744420591</v>
       </c>
       <c r="C10">
-        <v>-0.03437356309316453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03649499849879555</v>
+      </c>
+      <c r="D10">
+        <v>0.1799993082820084</v>
+      </c>
+      <c r="E10">
+        <v>0.04462322121684533</v>
+      </c>
+      <c r="F10">
+        <v>0.03907081687452592</v>
+      </c>
+      <c r="G10">
+        <v>0.04348505430134143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0670013182383786</v>
+        <v>-0.07566115524070427</v>
       </c>
       <c r="C11">
-        <v>-0.05158060886900306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03004556749070985</v>
+      </c>
+      <c r="D11">
+        <v>-0.06763864084415191</v>
+      </c>
+      <c r="E11">
+        <v>-0.01115206322450453</v>
+      </c>
+      <c r="F11">
+        <v>0.03434825116793443</v>
+      </c>
+      <c r="G11">
+        <v>0.01879171039122045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0520936569452167</v>
+        <v>-0.0636903631900098</v>
       </c>
       <c r="C12">
-        <v>-0.05205400865989458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03594367607860446</v>
+      </c>
+      <c r="D12">
+        <v>-0.05287639989883518</v>
+      </c>
+      <c r="E12">
+        <v>0.007587407108053569</v>
+      </c>
+      <c r="F12">
+        <v>0.03141402060620554</v>
+      </c>
+      <c r="G12">
+        <v>0.0149943383024576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05855679750168141</v>
+        <v>-0.06475878782656509</v>
       </c>
       <c r="C13">
-        <v>-0.05169747161778822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03088258367826134</v>
+      </c>
+      <c r="D13">
+        <v>-0.04733621591200755</v>
+      </c>
+      <c r="E13">
+        <v>0.006094362814043314</v>
+      </c>
+      <c r="F13">
+        <v>0.0164552534121591</v>
+      </c>
+      <c r="G13">
+        <v>0.004046693138456145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0309425151078317</v>
+        <v>-0.03893387556107544</v>
       </c>
       <c r="C14">
-        <v>-0.02924058625522231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02219876266749457</v>
+      </c>
+      <c r="D14">
+        <v>-0.008005823088690144</v>
+      </c>
+      <c r="E14">
+        <v>0.01515759314805767</v>
+      </c>
+      <c r="F14">
+        <v>0.01824012206144343</v>
+      </c>
+      <c r="G14">
+        <v>0.00108141000307371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03975398960116528</v>
+        <v>-0.04152528786990894</v>
       </c>
       <c r="C15">
-        <v>-0.01359530368811638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002837478651010511</v>
+      </c>
+      <c r="D15">
+        <v>-0.01456672510005561</v>
+      </c>
+      <c r="E15">
+        <v>0.03937374651879862</v>
+      </c>
+      <c r="F15">
+        <v>0.003413070132968789</v>
+      </c>
+      <c r="G15">
+        <v>-0.02051461868552543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05627899561503592</v>
+        <v>-0.06406674328797769</v>
       </c>
       <c r="C16">
-        <v>-0.04533595591084039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02814854743997863</v>
+      </c>
+      <c r="D16">
+        <v>-0.06112446715318898</v>
+      </c>
+      <c r="E16">
+        <v>-0.001034788039169424</v>
+      </c>
+      <c r="F16">
+        <v>0.0311636669818907</v>
+      </c>
+      <c r="G16">
+        <v>0.007410229585251595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06159600964727668</v>
+        <v>-0.06181733605497962</v>
       </c>
       <c r="C20">
-        <v>-0.03680707951202059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0157688514146086</v>
+      </c>
+      <c r="D20">
+        <v>-0.04900473004688922</v>
+      </c>
+      <c r="E20">
+        <v>0.01441305730183796</v>
+      </c>
+      <c r="F20">
+        <v>0.02763467549122271</v>
+      </c>
+      <c r="G20">
+        <v>0.01082071698711908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02557609041264168</v>
+        <v>-0.0253291752030728</v>
       </c>
       <c r="C21">
-        <v>-0.00051614902689202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.007554438759134863</v>
+      </c>
+      <c r="D21">
+        <v>-0.03336728439856454</v>
+      </c>
+      <c r="E21">
+        <v>0.08547620236834348</v>
+      </c>
+      <c r="F21">
+        <v>0.003430311809110071</v>
+      </c>
+      <c r="G21">
+        <v>-0.01539718250461323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06836531474795569</v>
+        <v>-0.06395741668394873</v>
       </c>
       <c r="C22">
-        <v>-0.07041813696671217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04022191130182921</v>
+      </c>
+      <c r="D22">
+        <v>-0.1029293766292659</v>
+      </c>
+      <c r="E22">
+        <v>0.6173232621781607</v>
+      </c>
+      <c r="F22">
+        <v>-0.09921916617127527</v>
+      </c>
+      <c r="G22">
+        <v>0.02763017841827814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06955214736051261</v>
+        <v>-0.06443445885469801</v>
       </c>
       <c r="C23">
-        <v>-0.069993898505194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03926783662502394</v>
+      </c>
+      <c r="D23">
+        <v>-0.1036897652696677</v>
+      </c>
+      <c r="E23">
+        <v>0.6164365989084227</v>
+      </c>
+      <c r="F23">
+        <v>-0.09847988362927816</v>
+      </c>
+      <c r="G23">
+        <v>0.02588143998798493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06493714857119919</v>
+        <v>-0.07547214028879855</v>
       </c>
       <c r="C24">
-        <v>-0.05388075120440668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03353028079855284</v>
+      </c>
+      <c r="D24">
+        <v>-0.06461442566689471</v>
+      </c>
+      <c r="E24">
+        <v>0.006637925375065704</v>
+      </c>
+      <c r="F24">
+        <v>0.04340110025601075</v>
+      </c>
+      <c r="G24">
+        <v>0.006094713325457568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06487029478555763</v>
+        <v>-0.0734079512497546</v>
       </c>
       <c r="C25">
-        <v>-0.05951192602029724</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.0379476461573772</v>
+      </c>
+      <c r="D25">
+        <v>-0.06257137472387717</v>
+      </c>
+      <c r="E25">
+        <v>0.01004357727316696</v>
+      </c>
+      <c r="F25">
+        <v>0.03952879893993656</v>
+      </c>
+      <c r="G25">
+        <v>-0.004014553806377658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03850181984340273</v>
+        <v>-0.04166626939822992</v>
       </c>
       <c r="C26">
-        <v>-0.01460445726515889</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005171384799916753</v>
+      </c>
+      <c r="D26">
+        <v>-0.02277610430815584</v>
+      </c>
+      <c r="E26">
+        <v>0.03343076966415545</v>
+      </c>
+      <c r="F26">
+        <v>0.02470989500653285</v>
+      </c>
+      <c r="G26">
+        <v>0.01186001960712888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05182840474938089</v>
+        <v>-0.07296269222778282</v>
       </c>
       <c r="C28">
-        <v>-0.07221820864516706</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07330715074645854</v>
+      </c>
+      <c r="D28">
+        <v>0.3232836961027866</v>
+      </c>
+      <c r="E28">
+        <v>0.03716709344430587</v>
+      </c>
+      <c r="F28">
+        <v>0.05266458815129628</v>
+      </c>
+      <c r="G28">
+        <v>-0.02527667082233027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03638957398917717</v>
+        <v>-0.04404285032172416</v>
       </c>
       <c r="C29">
-        <v>-0.03009273512992183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02256213130305169</v>
+      </c>
+      <c r="D29">
+        <v>-0.009317754273164123</v>
+      </c>
+      <c r="E29">
+        <v>0.03860544940504611</v>
+      </c>
+      <c r="F29">
+        <v>0.01745561012788094</v>
+      </c>
+      <c r="G29">
+        <v>0.01482110979390696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1146037527620177</v>
+        <v>-0.1322132791199585</v>
       </c>
       <c r="C30">
-        <v>-0.1007572627076112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06506096980217092</v>
+      </c>
+      <c r="D30">
+        <v>-0.09361457187253265</v>
+      </c>
+      <c r="E30">
+        <v>0.04250441907128728</v>
+      </c>
+      <c r="F30">
+        <v>0.02181804188756004</v>
+      </c>
+      <c r="G30">
+        <v>-0.02204430645709638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03779989727862803</v>
+        <v>-0.04386176937445398</v>
       </c>
       <c r="C31">
-        <v>-0.02385913272714596</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01394226074687951</v>
+      </c>
+      <c r="D31">
+        <v>-0.02751880774917684</v>
+      </c>
+      <c r="E31">
+        <v>0.02096292606505753</v>
+      </c>
+      <c r="F31">
+        <v>0.01456116621394621</v>
+      </c>
+      <c r="G31">
+        <v>0.0235737080505511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03308435706150618</v>
+        <v>-0.03265241235413031</v>
       </c>
       <c r="C32">
-        <v>-0.02245470149674809</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.0124225601893824</v>
+      </c>
+      <c r="D32">
+        <v>-0.01237642051519699</v>
+      </c>
+      <c r="E32">
+        <v>0.06610788560254836</v>
+      </c>
+      <c r="F32">
+        <v>0.0006655167802697402</v>
+      </c>
+      <c r="G32">
+        <v>-0.02751459415247101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07416162500357745</v>
+        <v>-0.08809919228446733</v>
       </c>
       <c r="C33">
-        <v>-0.05314336074281187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03266563574402012</v>
+      </c>
+      <c r="D33">
+        <v>-0.06145679712031656</v>
+      </c>
+      <c r="E33">
+        <v>0.01178220191333051</v>
+      </c>
+      <c r="F33">
+        <v>0.009424206341335251</v>
+      </c>
+      <c r="G33">
+        <v>0.01645364047621585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05134810982383691</v>
+        <v>-0.05826982781462817</v>
       </c>
       <c r="C34">
-        <v>-0.03441254486281679</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01801956281075575</v>
+      </c>
+      <c r="D34">
+        <v>-0.05988078516681739</v>
+      </c>
+      <c r="E34">
+        <v>0.0003764678738556404</v>
+      </c>
+      <c r="F34">
+        <v>0.02549851108669906</v>
+      </c>
+      <c r="G34">
+        <v>0.001957895175212905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03557955575959947</v>
+        <v>-0.04037375696101426</v>
       </c>
       <c r="C35">
-        <v>-0.01283584931288345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005010516580052778</v>
+      </c>
+      <c r="D35">
+        <v>-0.01514188226234989</v>
+      </c>
+      <c r="E35">
+        <v>0.02161342857880486</v>
+      </c>
+      <c r="F35">
+        <v>0.002228062084863204</v>
+      </c>
+      <c r="G35">
+        <v>0.01164290317259695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0179518121048596</v>
+        <v>-0.02490352434113829</v>
       </c>
       <c r="C36">
-        <v>-0.01681464287849807</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01240913106223466</v>
+      </c>
+      <c r="D36">
+        <v>-0.01957569987056511</v>
+      </c>
+      <c r="E36">
+        <v>0.03556750250785867</v>
+      </c>
+      <c r="F36">
+        <v>0.02130507911672025</v>
+      </c>
+      <c r="G36">
+        <v>0.01721706742493209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03796879248835638</v>
+        <v>-0.04067065657738</v>
       </c>
       <c r="C38">
-        <v>-0.009740741879280108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002136463687877977</v>
+      </c>
+      <c r="D38">
+        <v>-0.01346469910261715</v>
+      </c>
+      <c r="E38">
+        <v>0.06034669472921464</v>
+      </c>
+      <c r="F38">
+        <v>-0.01422093084622695</v>
+      </c>
+      <c r="G38">
+        <v>-0.01419545082242985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08740864703305397</v>
+        <v>-0.1015963370729759</v>
       </c>
       <c r="C39">
-        <v>-0.08398534371954161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05488640947467398</v>
+      </c>
+      <c r="D39">
+        <v>-0.08353912946581582</v>
+      </c>
+      <c r="E39">
+        <v>-0.01228623077020959</v>
+      </c>
+      <c r="F39">
+        <v>0.02096481123222011</v>
+      </c>
+      <c r="G39">
+        <v>-0.01930528601259284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06574564691811696</v>
+        <v>-0.07048836266511467</v>
       </c>
       <c r="C40">
-        <v>-0.05581285722736677</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03350742300956034</v>
+      </c>
+      <c r="D40">
+        <v>-0.01090684041622703</v>
+      </c>
+      <c r="E40">
+        <v>0.02919288617438484</v>
+      </c>
+      <c r="F40">
+        <v>-0.04984933673428019</v>
+      </c>
+      <c r="G40">
+        <v>-0.0710813799795862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03887731729163818</v>
+        <v>-0.04321175045892971</v>
       </c>
       <c r="C41">
-        <v>-0.01513420084600835</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.005734645640372992</v>
+      </c>
+      <c r="D41">
+        <v>-0.04029339718193212</v>
+      </c>
+      <c r="E41">
+        <v>0.007233118529404729</v>
+      </c>
+      <c r="F41">
+        <v>-0.005137831004817714</v>
+      </c>
+      <c r="G41">
+        <v>-0.01027872316926096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04347310976536495</v>
+        <v>-0.05257234576932378</v>
       </c>
       <c r="C43">
-        <v>-0.03286715278325448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02028017444907025</v>
+      </c>
+      <c r="D43">
+        <v>-0.02920313540741594</v>
+      </c>
+      <c r="E43">
+        <v>0.01722014062045606</v>
+      </c>
+      <c r="F43">
+        <v>0.01743306694493245</v>
+      </c>
+      <c r="G43">
+        <v>0.01030655272339583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.09034135758182642</v>
+        <v>-0.09264678124177125</v>
       </c>
       <c r="C44">
-        <v>-0.09547130010663156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06164481004237886</v>
+      </c>
+      <c r="D44">
+        <v>-0.05755182938715761</v>
+      </c>
+      <c r="E44">
+        <v>0.095004930930527</v>
+      </c>
+      <c r="F44">
+        <v>0.06407960278920352</v>
+      </c>
+      <c r="G44">
+        <v>-0.02216051854323849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02690125035868602</v>
+        <v>-0.02834292179702569</v>
       </c>
       <c r="C46">
-        <v>-0.01838618515341017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009666472619794312</v>
+      </c>
+      <c r="D46">
+        <v>-0.0340005742721624</v>
+      </c>
+      <c r="E46">
+        <v>0.01648527662923563</v>
+      </c>
+      <c r="F46">
+        <v>0.01945222009462949</v>
+      </c>
+      <c r="G46">
+        <v>0.0002806367864262094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02800882416497996</v>
+        <v>-0.03045153764945371</v>
       </c>
       <c r="C47">
-        <v>-0.02191115231318115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01307299375802324</v>
+      </c>
+      <c r="D47">
+        <v>-0.01761831641263333</v>
+      </c>
+      <c r="E47">
+        <v>0.04836160559322564</v>
+      </c>
+      <c r="F47">
+        <v>0.01548128845227521</v>
+      </c>
+      <c r="G47">
+        <v>0.03087707389462948</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02904170183591035</v>
+        <v>-0.03298988067579228</v>
       </c>
       <c r="C48">
-        <v>-0.02086241289772137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01211403093782849</v>
+      </c>
+      <c r="D48">
+        <v>-0.03376115943125376</v>
+      </c>
+      <c r="E48">
+        <v>0.04148263685087282</v>
+      </c>
+      <c r="F48">
+        <v>0.01813136979340709</v>
+      </c>
+      <c r="G48">
+        <v>-0.00274313871513913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1503411298511047</v>
+        <v>-0.1788197469982196</v>
       </c>
       <c r="C49">
-        <v>-0.0896577870312866</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05236949139099298</v>
+      </c>
+      <c r="D49">
+        <v>-0.01656478426591927</v>
+      </c>
+      <c r="E49">
+        <v>-0.1332169959131118</v>
+      </c>
+      <c r="F49">
+        <v>0.01968535039726594</v>
+      </c>
+      <c r="G49">
+        <v>0.05367541693160162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03398740316163888</v>
+        <v>-0.04278876231110274</v>
       </c>
       <c r="C50">
-        <v>-0.02840407149585326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02127715505161399</v>
+      </c>
+      <c r="D50">
+        <v>-0.03731555220572093</v>
+      </c>
+      <c r="E50">
+        <v>0.04455131107784234</v>
+      </c>
+      <c r="F50">
+        <v>0.0278330756776061</v>
+      </c>
+      <c r="G50">
+        <v>0.02153607292728345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02493722373985499</v>
+        <v>-0.02750588604405576</v>
       </c>
       <c r="C51">
-        <v>-0.01676549854101649</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.009841882005454947</v>
+      </c>
+      <c r="D51">
+        <v>-0.02483854950450847</v>
+      </c>
+      <c r="E51">
+        <v>0.01956315466275685</v>
+      </c>
+      <c r="F51">
+        <v>0.01501220431799261</v>
+      </c>
+      <c r="G51">
+        <v>-0.004408750616835545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1381304405685665</v>
+        <v>-0.1581201113109668</v>
       </c>
       <c r="C53">
-        <v>-0.09713236369500586</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.0644433747068931</v>
+      </c>
+      <c r="D53">
+        <v>-0.02086964706855659</v>
+      </c>
+      <c r="E53">
+        <v>-0.04173638987301479</v>
+      </c>
+      <c r="F53">
+        <v>0.01385963619034376</v>
+      </c>
+      <c r="G53">
+        <v>0.001039622604356943</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.050697960939563</v>
+        <v>-0.05497171268529529</v>
       </c>
       <c r="C54">
-        <v>-0.02956187117628719</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01400887725439645</v>
+      </c>
+      <c r="D54">
+        <v>-0.03400356283495165</v>
+      </c>
+      <c r="E54">
+        <v>0.04562337878670208</v>
+      </c>
+      <c r="F54">
+        <v>0.02001035131852468</v>
+      </c>
+      <c r="G54">
+        <v>-0.001221074862699905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09201796147606185</v>
+        <v>-0.09944306989974254</v>
       </c>
       <c r="C55">
-        <v>-0.06319997544357968</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03955115138475784</v>
+      </c>
+      <c r="D55">
+        <v>-0.03098659307476597</v>
+      </c>
+      <c r="E55">
+        <v>0.006059245796060691</v>
+      </c>
+      <c r="F55">
+        <v>0.02014700329612677</v>
+      </c>
+      <c r="G55">
+        <v>-0.001951058870522978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1381759135571402</v>
+        <v>-0.1582045414656163</v>
       </c>
       <c r="C56">
-        <v>-0.1095168548583041</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07373280193546657</v>
+      </c>
+      <c r="D56">
+        <v>-0.01890702391805704</v>
+      </c>
+      <c r="E56">
+        <v>-0.04054929373634329</v>
+      </c>
+      <c r="F56">
+        <v>0.04709474748061437</v>
+      </c>
+      <c r="G56">
+        <v>0.01352222683316668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.114705000057875</v>
+        <v>-0.1001003311179789</v>
       </c>
       <c r="C58">
-        <v>-0.02875782349148776</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.01302060410026673</v>
+      </c>
+      <c r="D58">
+        <v>-0.06072492015350135</v>
+      </c>
+      <c r="E58">
+        <v>0.1846010730038389</v>
+      </c>
+      <c r="F58">
+        <v>0.0278293908670354</v>
+      </c>
+      <c r="G58">
+        <v>0.04736936985300098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1083508752065981</v>
+        <v>-0.1470610117019727</v>
       </c>
       <c r="C59">
-        <v>-0.08357737927572922</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08204953738173872</v>
+      </c>
+      <c r="D59">
+        <v>0.3544445457126387</v>
+      </c>
+      <c r="E59">
+        <v>0.04965113709690797</v>
+      </c>
+      <c r="F59">
+        <v>-0.01653617433770409</v>
+      </c>
+      <c r="G59">
+        <v>0.03774032296323496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.185070977617648</v>
+        <v>-0.2188780035960651</v>
       </c>
       <c r="C60">
-        <v>-0.119241134930794</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07725168205577169</v>
+      </c>
+      <c r="D60">
+        <v>-0.01653977356802342</v>
+      </c>
+      <c r="E60">
+        <v>-0.07432702926351274</v>
+      </c>
+      <c r="F60">
+        <v>0.03793799886869544</v>
+      </c>
+      <c r="G60">
+        <v>-0.02019022734678068</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07497702380334796</v>
+        <v>-0.08501523098509861</v>
       </c>
       <c r="C61">
-        <v>-0.06253962241295799</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03994121577913547</v>
+      </c>
+      <c r="D61">
+        <v>-0.06202921918341229</v>
+      </c>
+      <c r="E61">
+        <v>-0.01587367740395116</v>
+      </c>
+      <c r="F61">
+        <v>0.01034757712871822</v>
+      </c>
+      <c r="G61">
+        <v>0.01412976928003222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1173425484130392</v>
+        <v>-0.1384500279657836</v>
       </c>
       <c r="C62">
-        <v>-0.08268720935181546</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05489572718078512</v>
+      </c>
+      <c r="D62">
+        <v>-0.02256618973123953</v>
+      </c>
+      <c r="E62">
+        <v>-0.05523246060639531</v>
+      </c>
+      <c r="F62">
+        <v>0.01788353165058769</v>
+      </c>
+      <c r="G62">
+        <v>-0.03015879546965957</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.05075149049301128</v>
+        <v>-0.05158710036964111</v>
       </c>
       <c r="C63">
-        <v>-0.03194452802659849</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01647377634276585</v>
+      </c>
+      <c r="D63">
+        <v>-0.03150823320479175</v>
+      </c>
+      <c r="E63">
+        <v>0.04666985348440941</v>
+      </c>
+      <c r="F63">
+        <v>0.01362604004704537</v>
+      </c>
+      <c r="G63">
+        <v>-0.02858183377780878</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1076648365317986</v>
+        <v>-0.1126802170600987</v>
       </c>
       <c r="C64">
-        <v>-0.04408450309637472</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01392119213540238</v>
+      </c>
+      <c r="D64">
+        <v>-0.04694520251196745</v>
+      </c>
+      <c r="E64">
+        <v>0.02508365292544827</v>
+      </c>
+      <c r="F64">
+        <v>0.0595253410217509</v>
+      </c>
+      <c r="G64">
+        <v>-0.02403869223812768</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1110939012717074</v>
+        <v>-0.1245246156146101</v>
       </c>
       <c r="C65">
-        <v>-0.06789959564470678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04013582504839804</v>
+      </c>
+      <c r="D65">
+        <v>-0.01010440675332183</v>
+      </c>
+      <c r="E65">
+        <v>-0.00434955304032354</v>
+      </c>
+      <c r="F65">
+        <v>0.05988510827944619</v>
+      </c>
+      <c r="G65">
+        <v>-0.03248691925124259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1341535215236383</v>
+        <v>-0.1526577702466978</v>
       </c>
       <c r="C66">
-        <v>-0.09394791256235918</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05502881045408411</v>
+      </c>
+      <c r="D66">
+        <v>-0.1179642118143638</v>
+      </c>
+      <c r="E66">
+        <v>-0.05588751272500075</v>
+      </c>
+      <c r="F66">
+        <v>0.03878029807989537</v>
+      </c>
+      <c r="G66">
+        <v>-0.02043733180481653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0700050440474663</v>
+        <v>-0.07572699831107099</v>
       </c>
       <c r="C67">
-        <v>-0.0221159910263481</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.007065670707673571</v>
+      </c>
+      <c r="D67">
+        <v>-0.02495138625273982</v>
+      </c>
+      <c r="E67">
+        <v>0.02543318521724017</v>
+      </c>
+      <c r="F67">
+        <v>0.004948613488693289</v>
+      </c>
+      <c r="G67">
+        <v>0.007080642108705313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05406284712424406</v>
+        <v>-0.06809201501278228</v>
       </c>
       <c r="C68">
-        <v>-0.04877501982358567</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04918468819578519</v>
+      </c>
+      <c r="D68">
+        <v>0.2654390012794352</v>
+      </c>
+      <c r="E68">
+        <v>0.05153832814949641</v>
+      </c>
+      <c r="F68">
+        <v>0.01282052157102526</v>
+      </c>
+      <c r="G68">
+        <v>0.00789521774302031</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0506136740881818</v>
+        <v>-0.05067229432374173</v>
       </c>
       <c r="C69">
-        <v>-0.02473821879372152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.007622006990048283</v>
+      </c>
+      <c r="D69">
+        <v>-0.03263025087250625</v>
+      </c>
+      <c r="E69">
+        <v>0.02163083811147825</v>
+      </c>
+      <c r="F69">
+        <v>-0.002019277681017338</v>
+      </c>
+      <c r="G69">
+        <v>0.006448012607429766</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.004320246688186768</v>
+        <v>-0.01653396607453567</v>
       </c>
       <c r="C70">
-        <v>0.003555227949242516</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0004463846451473537</v>
+      </c>
+      <c r="D70">
+        <v>0.008672438783457992</v>
+      </c>
+      <c r="E70">
+        <v>-0.02102724584288874</v>
+      </c>
+      <c r="F70">
+        <v>0.01199189550919871</v>
+      </c>
+      <c r="G70">
+        <v>0.01840517055255721</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05716821700127722</v>
+        <v>-0.07221653167300511</v>
       </c>
       <c r="C71">
-        <v>-0.04667260561440279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04741671515577361</v>
+      </c>
+      <c r="D71">
+        <v>0.2997629372749746</v>
+      </c>
+      <c r="E71">
+        <v>0.04720606297658003</v>
+      </c>
+      <c r="F71">
+        <v>0.03748042258359145</v>
+      </c>
+      <c r="G71">
+        <v>0.005498848734344951</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1323900120940213</v>
+        <v>-0.1544215292671271</v>
       </c>
       <c r="C72">
-        <v>-0.07568279532520221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04472676544969174</v>
+      </c>
+      <c r="D72">
+        <v>-0.006267671550346217</v>
+      </c>
+      <c r="E72">
+        <v>-0.08295919962401588</v>
+      </c>
+      <c r="F72">
+        <v>-0.1642470270766876</v>
+      </c>
+      <c r="G72">
+        <v>-0.1200090302719445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2461398103658193</v>
+        <v>-0.276046647892285</v>
       </c>
       <c r="C73">
-        <v>-0.1436497330049177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07758294075325639</v>
+      </c>
+      <c r="D73">
+        <v>-0.07249198455319131</v>
+      </c>
+      <c r="E73">
+        <v>-0.1930690908428071</v>
+      </c>
+      <c r="F73">
+        <v>0.0618507195357046</v>
+      </c>
+      <c r="G73">
+        <v>0.1840732801306357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07325178791432586</v>
+        <v>-0.08895374415364961</v>
       </c>
       <c r="C74">
-        <v>-0.08431344387975047</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06279902717207636</v>
+      </c>
+      <c r="D74">
+        <v>-0.03390413141628809</v>
+      </c>
+      <c r="E74">
+        <v>-0.006381439428286205</v>
+      </c>
+      <c r="F74">
+        <v>-0.0109638400877361</v>
+      </c>
+      <c r="G74">
+        <v>0.03181727523154905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09463673617983986</v>
+        <v>-0.1035031995962309</v>
       </c>
       <c r="C75">
-        <v>-0.06454725575974996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03395191262327149</v>
+      </c>
+      <c r="D75">
+        <v>-0.01560865576774282</v>
+      </c>
+      <c r="E75">
+        <v>-0.001835875775761157</v>
+      </c>
+      <c r="F75">
+        <v>0.05258241435002546</v>
+      </c>
+      <c r="G75">
+        <v>0.01420835403522048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1154897161939143</v>
+        <v>-0.1328159276519053</v>
       </c>
       <c r="C76">
-        <v>-0.09769602026763477</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06675027763497679</v>
+      </c>
+      <c r="D76">
+        <v>-0.0535963364122499</v>
+      </c>
+      <c r="E76">
+        <v>0.007858120009970243</v>
+      </c>
+      <c r="F76">
+        <v>0.06457571084531712</v>
+      </c>
+      <c r="G76">
+        <v>0.005284452782936545</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.1142802081322231</v>
+        <v>-0.1129564569363915</v>
       </c>
       <c r="C77">
-        <v>-0.06132180780129463</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.0240719954510791</v>
+      </c>
+      <c r="D77">
+        <v>-0.01551175998219414</v>
+      </c>
+      <c r="E77">
+        <v>-0.01247594730197465</v>
+      </c>
+      <c r="F77">
+        <v>0.2494221730191792</v>
+      </c>
+      <c r="G77">
+        <v>-0.8808303872452318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08630933509100799</v>
+        <v>-0.1094147724333577</v>
       </c>
       <c r="C78">
-        <v>-0.04865693940266096</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03067833341492025</v>
+      </c>
+      <c r="D78">
+        <v>-0.07504665658817171</v>
+      </c>
+      <c r="E78">
+        <v>0.05554815185031501</v>
+      </c>
+      <c r="F78">
+        <v>0.007882229284453512</v>
+      </c>
+      <c r="G78">
+        <v>-0.0268274334203124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1351722676580041</v>
+        <v>-0.1509129971218056</v>
       </c>
       <c r="C79">
-        <v>-0.103531237729912</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06313587890883109</v>
+      </c>
+      <c r="D79">
+        <v>-0.02935969872299885</v>
+      </c>
+      <c r="E79">
+        <v>-0.02575515314562265</v>
+      </c>
+      <c r="F79">
+        <v>0.02820663320428446</v>
+      </c>
+      <c r="G79">
+        <v>0.01893664011672646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04009641390598265</v>
+        <v>-0.03851979385589001</v>
       </c>
       <c r="C80">
-        <v>-0.01855960704387329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006016876883202437</v>
+      </c>
+      <c r="D80">
+        <v>-0.02867687503020935</v>
+      </c>
+      <c r="E80">
+        <v>-0.004708318907054088</v>
+      </c>
+      <c r="F80">
+        <v>-0.0269709105847008</v>
+      </c>
+      <c r="G80">
+        <v>0.03603792553464446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1093366905362588</v>
+        <v>-0.1199001396031327</v>
       </c>
       <c r="C81">
-        <v>-0.07814568941435514</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.0457242999838754</v>
+      </c>
+      <c r="D81">
+        <v>-0.03197393178339068</v>
+      </c>
+      <c r="E81">
+        <v>-0.00917261353358069</v>
+      </c>
+      <c r="F81">
+        <v>0.02891950335245565</v>
+      </c>
+      <c r="G81">
+        <v>0.05169214206985363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1168660024730951</v>
+        <v>-0.1272551721091567</v>
       </c>
       <c r="C82">
-        <v>-0.08954603326976807</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05650709801804613</v>
+      </c>
+      <c r="D82">
+        <v>-0.03497138810306238</v>
+      </c>
+      <c r="E82">
+        <v>-0.02724427941622029</v>
+      </c>
+      <c r="F82">
+        <v>0.0507855326313934</v>
+      </c>
+      <c r="G82">
+        <v>0.04620476387576648</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07364712739668347</v>
+        <v>-0.07534344551163329</v>
       </c>
       <c r="C83">
-        <v>-0.02324415376903811</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.001654814936011305</v>
+      </c>
+      <c r="D83">
+        <v>-0.04352034950280727</v>
+      </c>
+      <c r="E83">
+        <v>0.01324423518946552</v>
+      </c>
+      <c r="F83">
+        <v>0.007324469857045251</v>
+      </c>
+      <c r="G83">
+        <v>0.07848810731334278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.023919801163201</v>
+        <v>-0.03407464799795104</v>
       </c>
       <c r="C84">
-        <v>-0.02865075406870514</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02388099885427097</v>
+      </c>
+      <c r="D84">
+        <v>-0.02714531587022447</v>
+      </c>
+      <c r="E84">
+        <v>0.01898728561590941</v>
+      </c>
+      <c r="F84">
+        <v>-0.0525721747731247</v>
+      </c>
+      <c r="G84">
+        <v>0.05844758554513102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1154500250345212</v>
+        <v>-0.1190789157303965</v>
       </c>
       <c r="C85">
-        <v>-0.07672256062648404</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.0394186577082531</v>
+      </c>
+      <c r="D85">
+        <v>-0.03317549786178907</v>
+      </c>
+      <c r="E85">
+        <v>0.002034632647627863</v>
+      </c>
+      <c r="F85">
+        <v>0.07550537145030214</v>
+      </c>
+      <c r="G85">
+        <v>0.01946890967461215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04665495785098584</v>
+        <v>-0.04994888346315476</v>
       </c>
       <c r="C86">
-        <v>-0.02300358970939687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.009837741395831538</v>
+      </c>
+      <c r="D86">
+        <v>-0.01479497706706257</v>
+      </c>
+      <c r="E86">
+        <v>0.04850251848922346</v>
+      </c>
+      <c r="F86">
+        <v>0.01985291493460944</v>
+      </c>
+      <c r="G86">
+        <v>0.01805369681609522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1173605565314741</v>
+        <v>-0.1232954518631557</v>
       </c>
       <c r="C87">
-        <v>-0.08355753011006821</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04355925209961806</v>
+      </c>
+      <c r="D87">
+        <v>-0.06870040641989179</v>
+      </c>
+      <c r="E87">
+        <v>0.01882416064233794</v>
+      </c>
+      <c r="F87">
+        <v>0.03225764810892825</v>
+      </c>
+      <c r="G87">
+        <v>-0.106607490259004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05269588445743083</v>
+        <v>-0.05874145103768243</v>
       </c>
       <c r="C88">
-        <v>-0.03807952775210873</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02280516795145678</v>
+      </c>
+      <c r="D88">
+        <v>-0.02479268339722393</v>
+      </c>
+      <c r="E88">
+        <v>0.01951540331816697</v>
+      </c>
+      <c r="F88">
+        <v>0.01378207899468003</v>
+      </c>
+      <c r="G88">
+        <v>-0.009550034896299405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07720624646470432</v>
+        <v>-0.1048407457624571</v>
       </c>
       <c r="C89">
-        <v>-0.07246055727254852</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07301818511050881</v>
+      </c>
+      <c r="D89">
+        <v>0.3316933396087833</v>
+      </c>
+      <c r="E89">
+        <v>0.07807873480733604</v>
+      </c>
+      <c r="F89">
+        <v>0.0660579777212849</v>
+      </c>
+      <c r="G89">
+        <v>0.02407656407434943</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06801137836276967</v>
+        <v>-0.08794724776010103</v>
       </c>
       <c r="C90">
-        <v>-0.06104766498267377</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.05978626102118061</v>
+      </c>
+      <c r="D90">
+        <v>0.3057225105664058</v>
+      </c>
+      <c r="E90">
+        <v>0.0646840677575222</v>
+      </c>
+      <c r="F90">
+        <v>-0.01290199139498296</v>
+      </c>
+      <c r="G90">
+        <v>0.005866832089082501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07681933920464147</v>
+        <v>-0.08722986031430729</v>
       </c>
       <c r="C91">
-        <v>-0.06495196604229439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04240034815962979</v>
+      </c>
+      <c r="D91">
+        <v>-0.02522576730819289</v>
+      </c>
+      <c r="E91">
+        <v>0.01263800838741932</v>
+      </c>
+      <c r="F91">
+        <v>0.009999286284867652</v>
+      </c>
+      <c r="G91">
+        <v>0.03996038488023995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08052638600277937</v>
+        <v>-0.1011653352438342</v>
       </c>
       <c r="C92">
-        <v>-0.06976257812401453</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06521083922954196</v>
+      </c>
+      <c r="D92">
+        <v>0.333559482302028</v>
+      </c>
+      <c r="E92">
+        <v>0.04666201372870651</v>
+      </c>
+      <c r="F92">
+        <v>0.0293516048736658</v>
+      </c>
+      <c r="G92">
+        <v>0.009473078393036211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06089800485446643</v>
+        <v>-0.08477041005366082</v>
       </c>
       <c r="C93">
-        <v>-0.06005894864632186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06379263913215448</v>
+      </c>
+      <c r="D93">
+        <v>0.3026560689037038</v>
+      </c>
+      <c r="E93">
+        <v>0.03719258877125072</v>
+      </c>
+      <c r="F93">
+        <v>0.04259991391846281</v>
+      </c>
+      <c r="G93">
+        <v>0.0005588535253836551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1241343768985726</v>
+        <v>-0.1274898818671948</v>
       </c>
       <c r="C94">
-        <v>-0.07777600078595233</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03563429221508339</v>
+      </c>
+      <c r="D94">
+        <v>-0.05485012976119893</v>
+      </c>
+      <c r="E94">
+        <v>-0.02359995700744727</v>
+      </c>
+      <c r="F94">
+        <v>0.03091482732633387</v>
+      </c>
+      <c r="G94">
+        <v>0.04213374443153361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1122080714818663</v>
+        <v>-0.1188661339679705</v>
       </c>
       <c r="C95">
-        <v>-0.05834820366251934</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02228864621566438</v>
+      </c>
+      <c r="D95">
+        <v>-0.05881388526986643</v>
+      </c>
+      <c r="E95">
+        <v>-0.01591291705702518</v>
+      </c>
+      <c r="F95">
+        <v>0.02077811805720079</v>
+      </c>
+      <c r="G95">
+        <v>0.01239545539075593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1991374750139426</v>
+        <v>-0.2202426604769032</v>
       </c>
       <c r="C97">
-        <v>-0.07577614695950932</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.03279604350339473</v>
+      </c>
+      <c r="D97">
+        <v>0.02453398592047285</v>
+      </c>
+      <c r="E97">
+        <v>-0.1158938817463025</v>
+      </c>
+      <c r="F97">
+        <v>-0.8957235626381186</v>
+      </c>
+      <c r="G97">
+        <v>-0.1990480515499854</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2350027836682295</v>
+        <v>-0.2664792034884932</v>
       </c>
       <c r="C98">
-        <v>-0.1197315154933447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.05856552806873492</v>
+      </c>
+      <c r="D98">
+        <v>-0.05180091371115882</v>
+      </c>
+      <c r="E98">
+        <v>-0.1660638543552337</v>
+      </c>
+      <c r="F98">
+        <v>0.02908191489009442</v>
+      </c>
+      <c r="G98">
+        <v>0.266297438498436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5557167476018433</v>
+        <v>-0.3428401446911493</v>
       </c>
       <c r="C99">
-        <v>0.8214905092130267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9276523743039792</v>
+      </c>
+      <c r="D99">
+        <v>0.07567720313034085</v>
+      </c>
+      <c r="E99">
+        <v>0.03994091179922714</v>
+      </c>
+      <c r="F99">
+        <v>0.04185365362239121</v>
+      </c>
+      <c r="G99">
+        <v>0.01107688384204684</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03645488170260074</v>
+        <v>-0.04410120376276608</v>
       </c>
       <c r="C101">
-        <v>-0.03009803998788692</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02260668128429047</v>
+      </c>
+      <c r="D101">
+        <v>-0.009976956217327521</v>
+      </c>
+      <c r="E101">
+        <v>0.03800847852894468</v>
+      </c>
+      <c r="F101">
+        <v>0.01696735056910625</v>
+      </c>
+      <c r="G101">
+        <v>0.01501189098100163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
